--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://denveru-my.sharepoint.com/personal/ryan_elmore_du_edu/Documents/research/VoC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{607DB86E-639F-714F-AA47-539835DB8A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="109_{748451E7-B9C3-E64A-A4C4-C77635EC53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{7E9B4EC1-2F2D-4F4E-B48D-92813052CE6D}"/>
+    <workbookView xWindow="1840" yWindow="1980" windowWidth="28040" windowHeight="17440" xr2:uid="{7E9B4EC1-2F2D-4F4E-B48D-92813052CE6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Table One" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="4">
   <si>
     <t>Mean</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Std. Dev.</t>
+  </si>
+  <si>
+    <t>Std.</t>
   </si>
 </sst>
 </file>
@@ -61,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -81,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EE6DB-1200-2A4B-B122-FA782DA9094D}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>12</v>
       </c>
@@ -433,77 +443,68 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>-4.8500000000000003E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="D1">
-        <v>-4.5600000000000003E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="E1">
-        <v>-1.4100000000000001E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="F1">
-        <v>-2.0999999999999999E-5</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="G1">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="H1">
-        <v>6.6000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6.7999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>1.3328E-2</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="D2">
-        <v>1.0285000000000001E-2</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="E2">
-        <v>3.9439999999999996E-3</v>
+        <v>7.9199999999999995E-4</v>
       </c>
       <c r="F2">
-        <v>2.0170000000000001E-3</v>
+        <v>7.9100000000000004E-4</v>
       </c>
       <c r="G2">
-        <v>9.6400000000000001E-4</v>
-      </c>
-      <c r="H2">
-        <v>7.3800000000000005E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+        <v>7.54E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>-0.12612699999999999</v>
-      </c>
-      <c r="D3">
-        <v>-0.15349699999999999</v>
-      </c>
-      <c r="E3">
-        <v>-0.12392400000000001</v>
-      </c>
-      <c r="F3">
-        <v>-3.6778999999999999E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.172185</v>
-      </c>
-      <c r="H3">
-        <v>0.31162899999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
+        <v>0.30363600000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.30363499999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.303624</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.30360700000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.31409799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -511,77 +512,68 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.7E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="D4">
-        <v>2.4000000000000001E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="E4">
-        <v>5.1E-5</v>
+        <v>5.3999999999999998E-5</v>
       </c>
       <c r="F4">
-        <v>6.8999999999999997E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="G4">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H4">
-        <v>4.8000000000000001E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>4.8999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2.6220000000000002E-3</v>
+        <v>4.5899999999999999E-4</v>
       </c>
       <c r="D5">
-        <v>2.5149999999999999E-3</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="E5">
-        <v>1.8190000000000001E-3</v>
+        <v>4.57E-4</v>
       </c>
       <c r="F5">
-        <v>9.01E-4</v>
+        <v>4.4700000000000002E-4</v>
       </c>
       <c r="G5">
-        <v>4.8099999999999998E-4</v>
-      </c>
-      <c r="H5">
-        <v>3.6099999999999999E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+        <v>3.6299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0.12799199999999999</v>
-      </c>
-      <c r="D6">
-        <v>3.2944000000000001E-2</v>
-      </c>
-      <c r="E6">
-        <v>9.7066E-2</v>
-      </c>
-      <c r="F6">
-        <v>0.26467200000000002</v>
-      </c>
-      <c r="G6">
-        <v>0.43078100000000003</v>
-      </c>
-      <c r="H6">
-        <v>0.46174300000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="1">
+        <v>0.406028</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.40603099999999998</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.40612799999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.40985300000000002</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.46460499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -589,77 +581,68 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.1E-4</v>
+        <v>5.8E-5</v>
       </c>
       <c r="D7">
-        <v>7.3999999999999996E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="E7">
-        <v>5.3999999999999998E-5</v>
+        <v>5.8E-5</v>
       </c>
       <c r="F7">
-        <v>6.6000000000000005E-5</v>
+        <v>5.5999999999999999E-5</v>
       </c>
       <c r="G7">
-        <v>5.3999999999999998E-5</v>
-      </c>
-      <c r="H7">
-        <v>4.8999999999999998E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.8630000000000001E-3</v>
+        <v>4.2299999999999998E-4</v>
       </c>
       <c r="D8">
-        <v>1.828E-3</v>
+        <v>4.2200000000000001E-4</v>
       </c>
       <c r="E8">
-        <v>1.4300000000000001E-3</v>
+        <v>4.1899999999999999E-4</v>
       </c>
       <c r="F8">
-        <v>7.2400000000000003E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G8">
-        <v>3.6200000000000002E-4</v>
-      </c>
-      <c r="H8">
         <v>3.1E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>0.205343</v>
-      </c>
-      <c r="D9">
-        <v>0.14102700000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.13089700000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.31671100000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.52002899999999996</v>
-      </c>
-      <c r="H9">
-        <v>0.5474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
+        <v>0.47713100000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.47708400000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.47713899999999998</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.487815</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.55434399999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>180</v>
       </c>
@@ -667,77 +650,68 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.26E-4</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="D10">
-        <v>8.5000000000000006E-5</v>
+        <v>5.3000000000000001E-5</v>
       </c>
       <c r="E10">
-        <v>6.7000000000000002E-5</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="F10">
-        <v>6.3E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="G10">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="H10">
         <v>4.3999999999999999E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1.413E-3</v>
+        <v>4.0099999999999999E-4</v>
       </c>
       <c r="D11">
-        <v>1.2800000000000001E-3</v>
+        <v>4.0099999999999999E-4</v>
       </c>
       <c r="E11">
-        <v>1.0070000000000001E-3</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="F11">
-        <v>6.3100000000000005E-4</v>
+        <v>3.6900000000000002E-4</v>
       </c>
       <c r="G11">
-        <v>3.1599999999999998E-4</v>
-      </c>
-      <c r="H11">
-        <v>2.8499999999999999E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+        <v>2.8400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>180</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>0.30891400000000002</v>
-      </c>
-      <c r="D12">
-        <v>0.230827</v>
-      </c>
-      <c r="E12">
-        <v>0.23050899999999999</v>
-      </c>
-      <c r="F12">
-        <v>0.34346399999999999</v>
-      </c>
-      <c r="G12">
-        <v>0.53686</v>
-      </c>
-      <c r="H12">
-        <v>0.53560799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
+        <v>0.45782899999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.45773599999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.45799600000000001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.475657</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.54058799999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>240</v>
       </c>
@@ -745,77 +719,68 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.8999999999999994E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="D13">
-        <v>8.8999999999999995E-5</v>
+        <v>5.1E-5</v>
       </c>
       <c r="E13">
-        <v>8.0000000000000007E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F13">
-        <v>6.3E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="G13">
-        <v>4.6E-5</v>
-      </c>
-      <c r="H13">
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>240</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1.263E-3</v>
+        <v>3.9599999999999998E-4</v>
       </c>
       <c r="D14">
-        <v>1.165E-3</v>
+        <v>3.9500000000000001E-4</v>
       </c>
       <c r="E14">
-        <v>9.0399999999999996E-4</v>
+        <v>3.8900000000000002E-4</v>
       </c>
       <c r="F14">
-        <v>5.5999999999999995E-4</v>
+        <v>3.57E-4</v>
       </c>
       <c r="G14">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="H14">
-        <v>2.81E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+        <v>2.7999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>240</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15">
-        <v>0.27191300000000002</v>
-      </c>
-      <c r="D15">
-        <v>0.26536500000000002</v>
-      </c>
-      <c r="E15">
-        <v>0.30720799999999998</v>
-      </c>
-      <c r="F15">
-        <v>0.38959899999999997</v>
-      </c>
-      <c r="G15">
-        <v>0.54757500000000003</v>
-      </c>
-      <c r="H15">
-        <v>0.51817000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
+        <v>0.44708399999999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.44699699999999998</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.447822</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.47100799999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.52244800000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>360</v>
       </c>
@@ -823,74 +788,65 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.2799999999999999E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="D16">
-        <v>1.3200000000000001E-4</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="E16">
-        <v>1.08E-4</v>
+        <v>3.1999999999999999E-5</v>
       </c>
       <c r="F16">
-        <v>6.3E-5</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="G16">
-        <v>3.6000000000000001E-5</v>
-      </c>
-      <c r="H16">
         <v>2.9E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>360</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>1.2130000000000001E-3</v>
+        <v>3.3300000000000002E-4</v>
       </c>
       <c r="D17">
-        <v>1.2080000000000001E-3</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="E17">
-        <v>9.7000000000000005E-4</v>
+        <v>3.2600000000000001E-4</v>
       </c>
       <c r="F17">
-        <v>5.2400000000000005E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="G17">
-        <v>2.7399999999999999E-4</v>
-      </c>
-      <c r="H17">
-        <v>2.7500000000000002E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+        <v>2.7300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>360</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
-        <v>0.36684899999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.38002900000000001</v>
-      </c>
-      <c r="E18">
-        <v>0.38510100000000003</v>
-      </c>
-      <c r="F18">
-        <v>0.41387200000000002</v>
-      </c>
-      <c r="G18">
-        <v>0.45103799999999999</v>
-      </c>
-      <c r="H18">
-        <v>0.37083300000000002</v>
+      <c r="C18" s="1">
+        <v>0.34072799999999998</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.340642</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.34146799999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.360485</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.372562</v>
       </c>
     </row>
   </sheetData>

--- a/data/tables.xlsx
+++ b/data/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://denveru-my.sharepoint.com/personal/ryan_elmore_du_edu/Documents/research/VoC/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="109_{748451E7-B9C3-E64A-A4C4-C77635EC53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="109_{748451E7-B9C3-E64A-A4C4-C77635EC53AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E642AAA3-A189-A24D-9E42-B6F2EEFFFFB5}"/>
   <bookViews>
     <workbookView xWindow="1840" yWindow="1980" windowWidth="28040" windowHeight="17440" xr2:uid="{7E9B4EC1-2F2D-4F4E-B48D-92813052CE6D}"/>
   </bookViews>
@@ -427,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62EE6DB-1200-2A4B-B122-FA782DA9094D}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>12</v>
       </c>
@@ -457,8 +457,11 @@
       <c r="G1">
         <v>6.7999999999999999E-5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1">
+        <v>6.6000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
@@ -480,8 +483,11 @@
       <c r="G2">
         <v>7.54E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>7.3800000000000005E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -503,8 +509,11 @@
       <c r="G3" s="1">
         <v>0.31409799999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>0.31162899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -526,8 +535,11 @@
       <c r="G4">
         <v>4.8999999999999998E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>4.8000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -549,8 +561,11 @@
       <c r="G5">
         <v>3.6299999999999999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>3.6099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>60</v>
       </c>
@@ -572,8 +587,11 @@
       <c r="G6" s="1">
         <v>0.46460499999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>0.46174300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -595,8 +613,11 @@
       <c r="G7">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>4.8999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>120</v>
       </c>
@@ -618,8 +639,11 @@
       <c r="G8">
         <v>3.1E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>3.1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>120</v>
       </c>
@@ -641,8 +665,11 @@
       <c r="G9" s="1">
         <v>0.55434399999999995</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>0.5474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>180</v>
       </c>
@@ -664,8 +691,11 @@
       <c r="G10">
         <v>4.3999999999999999E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>4.3999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>180</v>
       </c>
@@ -687,8 +717,11 @@
       <c r="G11">
         <v>2.8400000000000002E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>2.8499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>180</v>
       </c>
@@ -710,8 +743,11 @@
       <c r="G12" s="1">
         <v>0.54058799999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>0.53560799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>240</v>
       </c>
@@ -733,8 +769,11 @@
       <c r="G13">
         <v>4.1999999999999998E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>4.1999999999999998E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>240</v>
       </c>
@@ -756,8 +795,11 @@
       <c r="G14">
         <v>2.7999999999999998E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>2.81E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>240</v>
       </c>
@@ -779,8 +821,11 @@
       <c r="G15" s="1">
         <v>0.52244800000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>0.51817000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>360</v>
       </c>
@@ -802,8 +847,11 @@
       <c r="G16">
         <v>2.9E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>2.9E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>360</v>
       </c>
@@ -825,8 +873,11 @@
       <c r="G17">
         <v>2.7300000000000002E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>2.7500000000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>360</v>
       </c>
@@ -847,6 +898,9 @@
       </c>
       <c r="G18" s="1">
         <v>0.372562</v>
+      </c>
+      <c r="I18">
+        <v>0.37083300000000002</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +913,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
